--- a/src/main/resources/form.xlsx
+++ b/src/main/resources/form.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="560" windowWidth="33040" windowHeight="18580" tabRatio="500"/>
@@ -75,8 +75,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -139,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -347,13 +347,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -367,19 +412,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -389,12 +434,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -407,13 +463,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3073400</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -423,8 +479,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12700" y="2362200"/>
-          <a:ext cx="3060700" cy="0"/>
+          <a:off x="12700" y="1917700"/>
+          <a:ext cx="4597400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -774,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:D32"/>
+  <dimension ref="A6:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -787,27 +843,39 @@
     <col min="3" max="16384" width="12.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:4" ht="31" customHeight="1"/>
-    <row r="9" spans="1:4" ht="25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:4" ht="9" customHeight="1" thickBot="1"/>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
+    <row r="6" spans="1:4" ht="30" customHeight="1"/>
+    <row r="7" spans="1:4" ht="25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" ht="9" customHeight="1" thickBot="1"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="10" spans="1:4" ht="36" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" ht="36" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1">
       <c r="A12" s="5"/>
@@ -851,90 +919,96 @@
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4" ht="36" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" ht="36" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" ht="36" customHeight="1" thickBot="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="C22" s="2" t="s">
+    <row r="19" spans="1:4" ht="36" customHeight="1" thickBot="1">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="C20" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" ht="20" thickBot="1">
-      <c r="C23" s="10" t="s">
+      <c r="D20" s="22"/>
+    </row>
+    <row r="21" spans="1:4" ht="20" thickBot="1">
+      <c r="C21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" ht="6" customHeight="1" thickBot="1"/>
-    <row r="25" spans="1:4">
-      <c r="A25" s="18" t="s">
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" ht="6" customHeight="1" thickBot="1"/>
+    <row r="23" spans="1:4">
+      <c r="A23" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-    </row>
-    <row r="32" spans="1:4" ht="20" thickBot="1">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" spans="1:4" ht="7" customHeight="1">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="1:4" ht="20" thickBot="1">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A23:D23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39000000000000007" right="0.39000000000000007" top="0.59" bottom="0" header="0.30000000000000004" footer="3.1496062992125988E-4"/>
